--- a/Room Data.xlsx
+++ b/Room Data.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
     <sheet name="May" sheetId="3" r:id="rId2"/>
     <sheet name="June" sheetId="5" r:id="rId3"/>
     <sheet name="July" sheetId="6" r:id="rId4"/>
+    <sheet name="August" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="100">
   <si>
     <t>Kushal</t>
   </si>
@@ -308,6 +309,15 @@
   </si>
   <si>
     <t>Pulihora</t>
+  </si>
+  <si>
+    <t>Oil/Curry</t>
+  </si>
+  <si>
+    <t>Rice baf</t>
+  </si>
+  <si>
+    <t>Oniens</t>
   </si>
 </sst>
 </file>
@@ -399,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -788,11 +798,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1001,12 +1039,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3049,6 +3094,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="C6:D6"/>
@@ -3065,14 +3118,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3084,7 +3129,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3150,32 +3195,32 @@
       <c r="C4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="69"/>
       <c r="F4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="69"/>
       <c r="I4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="73"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="69"/>
       <c r="L4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="73"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="69"/>
       <c r="O4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="73"/>
+      <c r="P4" s="72"/>
       <c r="Q4" s="69"/>
       <c r="R4" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="73"/>
+      <c r="S4" s="72"/>
       <c r="T4" s="69"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -3194,32 +3239,32 @@
       <c r="C5" s="70">
         <v>2700</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="71"/>
       <c r="F5" s="70">
         <v>2700</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="73"/>
       <c r="H5" s="71"/>
       <c r="I5" s="70">
         <v>2700</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="71"/>
       <c r="L5" s="70">
         <v>2700</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="73"/>
       <c r="N5" s="71"/>
       <c r="O5" s="70">
         <v>310</v>
       </c>
-      <c r="P5" s="72"/>
+      <c r="P5" s="73"/>
       <c r="Q5" s="71"/>
       <c r="R5" s="70">
         <v>2700</v>
       </c>
-      <c r="S5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="71"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -3232,32 +3277,32 @@
       <c r="C6" s="70">
         <v>122</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="71"/>
       <c r="F6" s="70">
         <v>-31</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="71"/>
       <c r="I6" s="70">
         <v>0</v>
       </c>
-      <c r="J6" s="72"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="71"/>
       <c r="L6" s="70">
         <v>-25</v>
       </c>
-      <c r="M6" s="72"/>
+      <c r="M6" s="73"/>
       <c r="N6" s="71"/>
       <c r="O6" s="70">
         <v>190</v>
       </c>
-      <c r="P6" s="72"/>
+      <c r="P6" s="73"/>
       <c r="Q6" s="71"/>
       <c r="R6" s="70">
         <v>-90</v>
       </c>
-      <c r="S6" s="72"/>
+      <c r="S6" s="73"/>
       <c r="T6" s="71"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -4189,12 +4234,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -4207,6 +4246,12 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4217,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4260,6 +4305,10 @@
       </c>
     </row>
     <row r="2" spans="1:24">
+      <c r="J2">
+        <f>K21-R2</f>
+        <v>3387</v>
+      </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
@@ -4284,32 +4333,32 @@
       <c r="C4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="69"/>
       <c r="F4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="69"/>
       <c r="I4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="73"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="69"/>
       <c r="L4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="73"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="69"/>
       <c r="O4" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="73"/>
+      <c r="P4" s="72"/>
       <c r="Q4" s="69"/>
       <c r="R4" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="73"/>
+      <c r="S4" s="72"/>
       <c r="T4" s="69"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -4328,32 +4377,32 @@
       <c r="C5" s="70">
         <v>3000</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="71"/>
       <c r="F5" s="70">
         <v>3000</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="73"/>
       <c r="H5" s="71"/>
       <c r="I5" s="70">
         <v>3000</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="71"/>
       <c r="L5" s="70">
         <v>3000</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="73"/>
       <c r="N5" s="71"/>
       <c r="O5" s="70">
         <v>2500</v>
       </c>
-      <c r="P5" s="72"/>
+      <c r="P5" s="73"/>
       <c r="Q5" s="71"/>
       <c r="R5" s="70">
         <v>3000</v>
       </c>
-      <c r="S5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="71"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -4366,30 +4415,30 @@
       <c r="C6" s="70">
         <v>-288</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="71"/>
       <c r="F6" s="70">
         <v>159</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="71"/>
       <c r="I6" s="70">
         <v>-30</v>
       </c>
-      <c r="J6" s="72"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="71"/>
       <c r="L6" s="70">
         <v>-29</v>
       </c>
-      <c r="M6" s="72"/>
+      <c r="M6" s="73"/>
       <c r="N6" s="71"/>
       <c r="O6" s="70"/>
-      <c r="P6" s="72"/>
+      <c r="P6" s="73"/>
       <c r="Q6" s="71"/>
       <c r="R6" s="70">
         <v>-520</v>
       </c>
-      <c r="S6" s="72"/>
+      <c r="S6" s="73"/>
       <c r="T6" s="71"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -4779,9 +4828,15 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="C13" s="25"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="44">
+        <v>43296</v>
+      </c>
+      <c r="E13" s="26">
+        <v>150</v>
+      </c>
       <c r="F13" s="23" t="s">
         <v>92</v>
       </c>
@@ -4830,9 +4885,15 @@
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="C14" s="10"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="45">
+        <v>43316</v>
+      </c>
+      <c r="E14" s="11">
+        <v>15</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="45"/>
       <c r="H14" s="11"/>
@@ -4877,9 +4938,15 @@
       <c r="L15" s="25"/>
       <c r="M15" s="44"/>
       <c r="N15" s="26"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="26"/>
+      <c r="O15" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="65">
+        <v>43308</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>150</v>
+      </c>
       <c r="R15" s="25"/>
       <c r="S15" s="44"/>
       <c r="T15" s="26"/>
@@ -5010,7 +5077,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="2">
         <f>SUM(E8:E20)</f>
-        <v>2775</v>
+        <v>2940</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>7</v>
@@ -5042,7 +5109,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="2">
         <f>SUM(Q9:Q20)</f>
-        <v>878</v>
+        <v>1028</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>7</v>
@@ -5069,7 +5136,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="16">
         <f>SUM(C5:E6)-E21</f>
-        <v>-63</v>
+        <v>-228</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>11</v>
@@ -5101,7 +5168,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="16">
         <f>SUM(O5:Q6)-Q21</f>
-        <v>1622</v>
+        <v>1472</v>
       </c>
       <c r="R22" s="16" t="s">
         <v>11</v>
@@ -5166,7 +5233,7 @@
       </c>
       <c r="B25" s="14">
         <f>SUM(E21,H21,K21,N21,Q21,T21)</f>
-        <v>17087</v>
+        <v>17402</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -5236,6 +5303,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -5248,12 +5321,6 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Item(s) of Expense" error="Eg: Like Rent or water or Travelling etc.." promptTitle="Item(s) of Expense" prompt="Eg: Like Rent or water or Travelling etc.." sqref="I14">
@@ -5266,4 +5333,864 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="8.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="18">
+        <v>2700</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1"/>
+      <c r="R1" s="27">
+        <v>1887</v>
+      </c>
+      <c r="T1" s="27">
+        <v>4291</v>
+      </c>
+      <c r="U1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2">
+        <f>T1-R1</f>
+        <v>2404</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+      <c r="R3">
+        <f>R1-R2</f>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="21.75" thickBot="1">
+      <c r="C4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="72"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="72"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="72"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="72"/>
+      <c r="T4" s="69"/>
+      <c r="V4" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1">
+      <c r="B5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="70">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="70">
+        <v>2500</v>
+      </c>
+      <c r="G5" s="73"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="70">
+        <v>2500</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="70">
+        <v>2500</v>
+      </c>
+      <c r="M5" s="73"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="70">
+        <v>2500</v>
+      </c>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="70">
+        <v>2500</v>
+      </c>
+      <c r="S5" s="73"/>
+      <c r="T5" s="71"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1">
+      <c r="B6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="70">
+        <v>-213</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="70">
+        <v>103</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="70">
+        <v>-387</v>
+      </c>
+      <c r="J6" s="73"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="70">
+        <v>-144</v>
+      </c>
+      <c r="M6" s="73"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="70">
+        <v>-605</v>
+      </c>
+      <c r="S6" s="73"/>
+      <c r="T6" s="71"/>
+      <c r="V6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="18">
+        <v>8000</v>
+      </c>
+      <c r="X6" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1">
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="18">
+        <v>250</v>
+      </c>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="C8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="47">
+        <v>43314</v>
+      </c>
+      <c r="E8" s="63">
+        <v>600</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="24"/>
+      <c r="V8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="C9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="44">
+        <v>43315</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="26"/>
+      <c r="V9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" s="18">
+        <v>1200</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="C10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="44">
+        <v>43315</v>
+      </c>
+      <c r="E10" s="11">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="11"/>
+      <c r="V10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="18">
+        <v>1100</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="C11" s="25"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="26"/>
+      <c r="V11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="18">
+        <f>650*4</f>
+        <v>2600</v>
+      </c>
+      <c r="X11" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="C12" s="25"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="26"/>
+      <c r="V12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="18">
+        <v>300</v>
+      </c>
+      <c r="X12" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="C13" s="25"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="26"/>
+      <c r="V13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="18">
+        <v>1500</v>
+      </c>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="C14" s="10"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="11"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="C15" s="25"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="26"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7">
+        <f>SUM(W6:W13)</f>
+        <v>15950</v>
+      </c>
+      <c r="X15" s="7">
+        <f>SUM(X6:X13)</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="C16" s="40"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="26"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="C17" s="10"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="11"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="C18" s="10"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="11"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="C19" s="10"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="11"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1">
+      <c r="C20" s="12"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="13"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2">
+        <f>SUM(E8:E20)</f>
+        <v>1720</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="2">
+        <f>SUM(H8:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="2">
+        <f>SUM(K8:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="2">
+        <f>SUM(N8:N20)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="2">
+        <f>SUM(Q9:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="2">
+        <f>SUM(T8:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="17">
+        <f>SUM(W6:W20)</f>
+        <v>31900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16">
+        <f>SUM(C5:E6)-E21</f>
+        <v>567</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16">
+        <f>SUM(F5:H6)-H21</f>
+        <v>2603</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16">
+        <f>SUM(I5:K6)-K21</f>
+        <v>2113</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16">
+        <f>SUM(L5:N6)-N21</f>
+        <v>2356</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16">
+        <f>SUM(O5:Q6)-Q21</f>
+        <v>2500</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16">
+        <f>SUM(R5:T6)-T21</f>
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="14">
+        <f>SUM(C5:T6)</f>
+        <v>13754</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="14">
+        <f>SUM(E21,H21,K21,N21,Q21,T21)</f>
+        <v>1720</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15">
+        <f>2500*7</f>
+        <v>17500</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Room Data.xlsx
+++ b/Room Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="100">
   <si>
     <t>Kushal</t>
   </si>
@@ -314,10 +314,10 @@
     <t>Oil/Curry</t>
   </si>
   <si>
-    <t>Rice baf</t>
-  </si>
-  <si>
     <t>Oniens</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
 </sst>
 </file>
@@ -1025,6 +1025,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1039,19 +1046,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,36 +1420,36 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:21" ht="21.75" thickBot="1">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="68" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="68" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="68" t="s">
+      <c r="N4" s="72"/>
+      <c r="O4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="69"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="72"/>
       <c r="T4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1458,46 +1458,46 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1">
-      <c r="C5" s="70">
+      <c r="C5" s="73">
         <f>IF(C4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="70">
+      <c r="D5" s="74"/>
+      <c r="E5" s="73">
         <f>IF(E4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="70">
+      <c r="F5" s="74"/>
+      <c r="G5" s="73">
         <f>IF(G4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70">
+      <c r="H5" s="74"/>
+      <c r="I5" s="73">
         <f>IF(I4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="70">
+      <c r="J5" s="74"/>
+      <c r="K5" s="73">
         <f>IF(K4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="70">
+      <c r="L5" s="74"/>
+      <c r="M5" s="73">
         <f>IF(M4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="70">
+      <c r="N5" s="74"/>
+      <c r="O5" s="73">
         <f>IF(O4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="70" t="str">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73" t="str">
         <f>IF(Q4&gt;0,$B$1,"")</f>
         <v/>
       </c>
-      <c r="R5" s="71"/>
+      <c r="R5" s="74"/>
       <c r="T5" s="7" t="s">
         <v>13</v>
       </c>
@@ -2215,36 +2215,36 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:21" ht="21.75" thickBot="1">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="68" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="68" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="68" t="s">
+      <c r="N4" s="72"/>
+      <c r="O4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="69"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="72"/>
       <c r="T4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2256,44 +2256,44 @@
       <c r="B5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="73">
         <v>2000</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="70">
+      <c r="D5" s="74"/>
+      <c r="E5" s="73">
         <f>IF(E4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="70">
+      <c r="F5" s="74"/>
+      <c r="G5" s="73">
         <f>IF(G4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70">
+      <c r="H5" s="74"/>
+      <c r="I5" s="73">
         <f>IF(I4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="70">
+      <c r="J5" s="74"/>
+      <c r="K5" s="73">
         <f>IF(K4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="70">
+      <c r="L5" s="74"/>
+      <c r="M5" s="73">
         <v>0</v>
       </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="70">
+      <c r="N5" s="74"/>
+      <c r="O5" s="73">
         <f>IF(O4&gt;0,$B$1,"")</f>
         <v>2500</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="70" t="str">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73" t="str">
         <f>IF(Q4&gt;0,$B$1,"")</f>
         <v/>
       </c>
-      <c r="R5" s="71"/>
+      <c r="R5" s="74"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
@@ -2301,44 +2301,44 @@
       <c r="B6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="73">
         <f>IFERROR(April!D18,"0")</f>
         <v>87</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="70">
+      <c r="D6" s="74"/>
+      <c r="E6" s="73">
         <f>IFERROR(April!F18,"0")</f>
         <v>-21</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70">
+      <c r="F6" s="74"/>
+      <c r="G6" s="73">
         <f>IFERROR(April!H18,"0")</f>
         <v>0</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="70">
+      <c r="H6" s="74"/>
+      <c r="I6" s="73">
         <f>IFERROR(April!J18,"0")</f>
         <v>170</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="70">
+      <c r="J6" s="74"/>
+      <c r="K6" s="73">
         <f>IFERROR(April!L18,"0")</f>
         <v>90</v>
       </c>
-      <c r="L6" s="71"/>
-      <c r="M6" s="70">
+      <c r="L6" s="74"/>
+      <c r="M6" s="73">
         <v>0</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="70">
+      <c r="N6" s="74"/>
+      <c r="O6" s="73">
         <v>0</v>
       </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="70" t="str">
+      <c r="P6" s="74"/>
+      <c r="Q6" s="73" t="str">
         <f>IFERROR(April!R18,"0")</f>
         <v>0</v>
       </c>
-      <c r="R6" s="71"/>
+      <c r="R6" s="74"/>
       <c r="T6" s="7" t="s">
         <v>13</v>
       </c>
@@ -3094,14 +3094,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="C6:D6"/>
@@ -3118,6 +3110,14 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3192,36 +3192,36 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:24" ht="21.75" thickBot="1">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="68" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="68" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="68" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="68" t="s">
+      <c r="M4" s="76"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="68" t="s">
+      <c r="P4" s="76"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="69"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
       </c>
@@ -3236,36 +3236,36 @@
       <c r="B5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="73">
         <v>2700</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="70">
+      <c r="D5" s="75"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="73">
         <v>2700</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70">
+      <c r="G5" s="75"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="73">
         <v>2700</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="70">
+      <c r="J5" s="75"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="73">
         <v>2700</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="70">
+      <c r="M5" s="75"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="73">
         <v>310</v>
       </c>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="70">
+      <c r="P5" s="75"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="73">
         <v>2700</v>
       </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="71"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="1"/>
@@ -3274,36 +3274,36 @@
       <c r="B6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="73">
         <v>122</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="70">
+      <c r="D6" s="75"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="73">
         <v>-31</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="70">
+      <c r="G6" s="75"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="73">
         <v>0</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="70">
+      <c r="J6" s="75"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="73">
         <v>-25</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="70">
+      <c r="M6" s="75"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="73">
         <v>190</v>
       </c>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="70">
+      <c r="P6" s="75"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="73">
         <v>-90</v>
       </c>
-      <c r="S6" s="73"/>
-      <c r="T6" s="71"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
       </c>
@@ -4234,6 +4234,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -4246,12 +4252,6 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4330,36 +4330,36 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="21.75" thickBot="1">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="68" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="68" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="68" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="68" t="s">
+      <c r="M4" s="76"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="68" t="s">
+      <c r="P4" s="76"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="69"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
       </c>
@@ -4374,36 +4374,36 @@
       <c r="B5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="73">
         <v>3000</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="70">
+      <c r="D5" s="75"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="73">
         <v>3000</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70">
+      <c r="G5" s="75"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="73">
         <v>3000</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="70">
+      <c r="J5" s="75"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="73">
         <v>3000</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="70">
+      <c r="M5" s="75"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="73">
         <v>2500</v>
       </c>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="70">
+      <c r="P5" s="75"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="73">
         <v>3000</v>
       </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="71"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="1"/>
@@ -4412,34 +4412,34 @@
       <c r="B6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="73">
         <v>-288</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="70">
+      <c r="D6" s="75"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="73">
         <v>159</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="70">
+      <c r="G6" s="75"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="73">
         <v>-30</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="70">
+      <c r="J6" s="75"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="73">
         <v>-29</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="70">
+      <c r="M6" s="75"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="73">
         <v>-520</v>
       </c>
-      <c r="S6" s="73"/>
-      <c r="T6" s="71"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
       </c>
@@ -5303,12 +5303,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -5321,6 +5315,12 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Item(s) of Expense" error="Eg: Like Rent or water or Travelling etc.." promptTitle="Item(s) of Expense" prompt="Eg: Like Rent or water or Travelling etc.." sqref="I14">
@@ -5340,7 +5340,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:N6"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5403,36 +5403,36 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="21.75" thickBot="1">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="68" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="68" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="68" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="68" t="s">
+      <c r="M4" s="76"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="68" t="s">
+      <c r="P4" s="76"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="69"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
       </c>
@@ -5447,36 +5447,36 @@
       <c r="B5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="73">
         <v>2500</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="70">
+      <c r="D5" s="75"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="73">
         <v>2500</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70">
+      <c r="G5" s="75"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="73">
         <v>2500</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="70">
+      <c r="J5" s="75"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="73">
         <v>2500</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="70">
+      <c r="M5" s="75"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="73">
         <v>2500</v>
       </c>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="70">
+      <c r="P5" s="75"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="73">
         <v>2500</v>
       </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="71"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="1"/>
@@ -5485,34 +5485,34 @@
       <c r="B6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="73">
         <v>-213</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="70">
+      <c r="D6" s="75"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="73">
         <v>103</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="70">
+      <c r="G6" s="75"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="73">
         <v>-387</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="70">
+      <c r="J6" s="75"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="73">
         <v>-144</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="70">
+      <c r="M6" s="75"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="73">
         <v>-605</v>
       </c>
-      <c r="S6" s="73"/>
-      <c r="T6" s="71"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="P7" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="76" t="s">
+      <c r="Q7" s="70" t="s">
         <v>2</v>
       </c>
       <c r="R7" s="5" t="s">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1">
       <c r="C8" s="23" t="s">
         <v>88</v>
       </c>
@@ -5596,18 +5596,30 @@
       <c r="E8" s="63">
         <v>600</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="63"/>
+      <c r="F8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="47">
+        <v>43315</v>
+      </c>
+      <c r="H8" s="63">
+        <v>30</v>
+      </c>
       <c r="I8" s="23"/>
       <c r="J8" s="47"/>
       <c r="K8" s="63"/>
       <c r="L8" s="23"/>
       <c r="M8" s="47"/>
       <c r="N8" s="63"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="75"/>
+      <c r="O8" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="47">
+        <v>43315</v>
+      </c>
+      <c r="Q8" s="69">
+        <v>10</v>
+      </c>
       <c r="R8" s="54"/>
       <c r="S8" s="47"/>
       <c r="T8" s="24"/>
@@ -5621,9 +5633,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1">
       <c r="C9" s="25" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D9" s="44">
         <v>43315</v>
@@ -5631,9 +5643,15 @@
       <c r="E9" s="26">
         <v>1100</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="47">
+        <v>43317</v>
+      </c>
+      <c r="H9" s="63">
+        <v>20</v>
+      </c>
       <c r="I9" s="25"/>
       <c r="J9" s="44"/>
       <c r="K9" s="26"/>
@@ -5658,7 +5676,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="C10" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="44">
         <v>43315</v>
@@ -5666,9 +5684,15 @@
       <c r="E10" s="11">
         <v>20</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="47">
+        <v>43319</v>
+      </c>
+      <c r="H10" s="63">
+        <v>600</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="45"/>
       <c r="K10" s="11"/>
@@ -5953,7 +5977,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="2">
         <f>SUM(H8:H20)</f>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>7</v>
@@ -6012,7 +6036,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16">
         <f>SUM(F5:H6)-H21</f>
-        <v>2603</v>
+        <v>1953</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>11</v>
@@ -6101,7 +6125,7 @@
       </c>
       <c r="B25" s="14">
         <f>SUM(E21,H21,K21,N21,Q21,T21)</f>
-        <v>1720</v>
+        <v>2370</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -6171,11 +6195,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -6183,12 +6208,11 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="R5:T5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Room Data.xlsx
+++ b/Room Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="101">
   <si>
     <t>Kushal</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>water</t>
+  </si>
+  <si>
+    <t>Eggs+onies</t>
   </si>
 </sst>
 </file>
@@ -1046,12 +1049,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3094,6 +3097,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="C6:D6"/>
@@ -3110,14 +3121,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3195,32 +3198,32 @@
       <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="72"/>
       <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="72"/>
       <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="76"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="72"/>
       <c r="O4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="76"/>
+      <c r="P4" s="75"/>
       <c r="Q4" s="72"/>
       <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -3239,32 +3242,32 @@
       <c r="C5" s="73">
         <v>2700</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="74"/>
       <c r="F5" s="73">
         <v>2700</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="74"/>
       <c r="I5" s="73">
         <v>2700</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74"/>
       <c r="L5" s="73">
         <v>2700</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="74"/>
       <c r="O5" s="73">
         <v>310</v>
       </c>
-      <c r="P5" s="75"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="73">
         <v>2700</v>
       </c>
-      <c r="S5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -3277,32 +3280,32 @@
       <c r="C6" s="73">
         <v>122</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="74"/>
       <c r="F6" s="73">
         <v>-31</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="74"/>
       <c r="I6" s="73">
         <v>0</v>
       </c>
-      <c r="J6" s="75"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="74"/>
       <c r="L6" s="73">
         <v>-25</v>
       </c>
-      <c r="M6" s="75"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="74"/>
       <c r="O6" s="73">
         <v>190</v>
       </c>
-      <c r="P6" s="75"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="73">
         <v>-90</v>
       </c>
-      <c r="S6" s="75"/>
+      <c r="S6" s="76"/>
       <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -4234,12 +4237,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -4252,6 +4249,12 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4333,32 +4336,32 @@
       <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="72"/>
       <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="72"/>
       <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="76"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="72"/>
       <c r="O4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="76"/>
+      <c r="P4" s="75"/>
       <c r="Q4" s="72"/>
       <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -4377,32 +4380,32 @@
       <c r="C5" s="73">
         <v>3000</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="74"/>
       <c r="F5" s="73">
         <v>3000</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="74"/>
       <c r="I5" s="73">
         <v>3000</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74"/>
       <c r="L5" s="73">
         <v>3000</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="74"/>
       <c r="O5" s="73">
         <v>2500</v>
       </c>
-      <c r="P5" s="75"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="73">
         <v>3000</v>
       </c>
-      <c r="S5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -4415,30 +4418,30 @@
       <c r="C6" s="73">
         <v>-288</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="74"/>
       <c r="F6" s="73">
         <v>159</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="74"/>
       <c r="I6" s="73">
         <v>-30</v>
       </c>
-      <c r="J6" s="75"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="74"/>
       <c r="L6" s="73">
         <v>-29</v>
       </c>
-      <c r="M6" s="75"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="74"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="75"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="73">
         <v>-520</v>
       </c>
-      <c r="S6" s="75"/>
+      <c r="S6" s="76"/>
       <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -5303,6 +5306,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -5315,12 +5324,6 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Item(s) of Expense" error="Eg: Like Rent or water or Travelling etc.." promptTitle="Item(s) of Expense" prompt="Eg: Like Rent or water or Travelling etc.." sqref="I14">
@@ -5340,7 +5343,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5406,32 +5409,32 @@
       <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="72"/>
       <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="72"/>
       <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="76"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="72"/>
       <c r="O4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="76"/>
+      <c r="P4" s="75"/>
       <c r="Q4" s="72"/>
       <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -5450,32 +5453,32 @@
       <c r="C5" s="73">
         <v>2500</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="74"/>
       <c r="F5" s="73">
         <v>2500</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="74"/>
       <c r="I5" s="73">
         <v>2500</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74"/>
       <c r="L5" s="73">
         <v>2500</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="74"/>
       <c r="O5" s="73">
         <v>2500</v>
       </c>
-      <c r="P5" s="75"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="73">
         <v>2500</v>
       </c>
-      <c r="S5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -5488,30 +5491,30 @@
       <c r="C6" s="73">
         <v>-213</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="74"/>
       <c r="F6" s="73">
         <v>103</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="74"/>
       <c r="I6" s="73">
         <v>-387</v>
       </c>
-      <c r="J6" s="75"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="74"/>
       <c r="L6" s="73">
         <v>-144</v>
       </c>
-      <c r="M6" s="75"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="74"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="75"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="73">
         <v>-605</v>
       </c>
-      <c r="S6" s="75"/>
+      <c r="S6" s="76"/>
       <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -5605,21 +5608,21 @@
       <c r="H8" s="63">
         <v>30</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="63"/>
+      <c r="I8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="47">
+        <v>43317</v>
+      </c>
+      <c r="K8" s="63">
+        <v>20</v>
+      </c>
       <c r="L8" s="23"/>
       <c r="M8" s="47"/>
       <c r="N8" s="63"/>
-      <c r="O8" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" s="47">
-        <v>43315</v>
-      </c>
-      <c r="Q8" s="69">
-        <v>10</v>
-      </c>
+      <c r="O8" s="68"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="69"/>
       <c r="R8" s="54"/>
       <c r="S8" s="47"/>
       <c r="T8" s="24"/>
@@ -5716,9 +5719,15 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="C11" s="25"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="44">
+        <v>43318</v>
+      </c>
+      <c r="E11" s="26">
+        <v>57</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="44"/>
       <c r="H11" s="26"/>
@@ -5969,7 +5978,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="2">
         <f>SUM(E8:E20)</f>
-        <v>1720</v>
+        <v>1777</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>7</v>
@@ -5985,7 +5994,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="2">
         <f>SUM(K8:K20)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>7</v>
@@ -6028,7 +6037,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="16">
         <f>SUM(C5:E6)-E21</f>
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>11</v>
@@ -6044,7 +6053,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16">
         <f>SUM(I5:K6)-K21</f>
-        <v>2113</v>
+        <v>2093</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>11</v>
@@ -6125,7 +6134,7 @@
       </c>
       <c r="B25" s="14">
         <f>SUM(E21,H21,K21,N21,Q21,T21)</f>
-        <v>2370</v>
+        <v>2447</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -6195,12 +6204,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -6213,6 +6216,12 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Room Data.xlsx
+++ b/Room Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="101">
   <si>
     <t>Kushal</t>
   </si>
@@ -1049,12 +1049,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3097,14 +3097,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="C6:D6"/>
@@ -3121,6 +3113,14 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3198,32 +3198,32 @@
       <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="72"/>
       <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="72"/>
       <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="76"/>
       <c r="N4" s="72"/>
       <c r="O4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="75"/>
+      <c r="P4" s="76"/>
       <c r="Q4" s="72"/>
       <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="75"/>
+      <c r="S4" s="76"/>
       <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -3242,32 +3242,32 @@
       <c r="C5" s="73">
         <v>2700</v>
       </c>
-      <c r="D5" s="76"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="74"/>
       <c r="F5" s="73">
         <v>2700</v>
       </c>
-      <c r="G5" s="76"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="74"/>
       <c r="I5" s="73">
         <v>2700</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="74"/>
       <c r="L5" s="73">
         <v>2700</v>
       </c>
-      <c r="M5" s="76"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="74"/>
       <c r="O5" s="73">
         <v>310</v>
       </c>
-      <c r="P5" s="76"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="73">
         <v>2700</v>
       </c>
-      <c r="S5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -3280,32 +3280,32 @@
       <c r="C6" s="73">
         <v>122</v>
       </c>
-      <c r="D6" s="76"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="74"/>
       <c r="F6" s="73">
         <v>-31</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="74"/>
       <c r="I6" s="73">
         <v>0</v>
       </c>
-      <c r="J6" s="76"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="74"/>
       <c r="L6" s="73">
         <v>-25</v>
       </c>
-      <c r="M6" s="76"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="74"/>
       <c r="O6" s="73">
         <v>190</v>
       </c>
-      <c r="P6" s="76"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="73">
         <v>-90</v>
       </c>
-      <c r="S6" s="76"/>
+      <c r="S6" s="75"/>
       <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -4237,6 +4237,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -4249,12 +4255,6 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4336,32 +4336,32 @@
       <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="72"/>
       <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="72"/>
       <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="76"/>
       <c r="N4" s="72"/>
       <c r="O4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="75"/>
+      <c r="P4" s="76"/>
       <c r="Q4" s="72"/>
       <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="75"/>
+      <c r="S4" s="76"/>
       <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -4380,32 +4380,32 @@
       <c r="C5" s="73">
         <v>3000</v>
       </c>
-      <c r="D5" s="76"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="74"/>
       <c r="F5" s="73">
         <v>3000</v>
       </c>
-      <c r="G5" s="76"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="74"/>
       <c r="I5" s="73">
         <v>3000</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="74"/>
       <c r="L5" s="73">
         <v>3000</v>
       </c>
-      <c r="M5" s="76"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="74"/>
       <c r="O5" s="73">
         <v>2500</v>
       </c>
-      <c r="P5" s="76"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="73">
         <v>3000</v>
       </c>
-      <c r="S5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -4418,30 +4418,30 @@
       <c r="C6" s="73">
         <v>-288</v>
       </c>
-      <c r="D6" s="76"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="74"/>
       <c r="F6" s="73">
         <v>159</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="74"/>
       <c r="I6" s="73">
         <v>-30</v>
       </c>
-      <c r="J6" s="76"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="74"/>
       <c r="L6" s="73">
         <v>-29</v>
       </c>
-      <c r="M6" s="76"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="74"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="76"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="73">
         <v>-520</v>
       </c>
-      <c r="S6" s="76"/>
+      <c r="S6" s="75"/>
       <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -5306,12 +5306,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -5324,6 +5318,12 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Item(s) of Expense" error="Eg: Like Rent or water or Travelling etc.." promptTitle="Item(s) of Expense" prompt="Eg: Like Rent or water or Travelling etc.." sqref="I14">
@@ -5343,7 +5343,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5409,32 +5409,32 @@
       <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="72"/>
       <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="72"/>
       <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="76"/>
       <c r="N4" s="72"/>
       <c r="O4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="75"/>
+      <c r="P4" s="76"/>
       <c r="Q4" s="72"/>
       <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="75"/>
+      <c r="S4" s="76"/>
       <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -5453,32 +5453,32 @@
       <c r="C5" s="73">
         <v>2500</v>
       </c>
-      <c r="D5" s="76"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="74"/>
       <c r="F5" s="73">
         <v>2500</v>
       </c>
-      <c r="G5" s="76"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="74"/>
       <c r="I5" s="73">
         <v>2500</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="74"/>
       <c r="L5" s="73">
         <v>2500</v>
       </c>
-      <c r="M5" s="76"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="74"/>
       <c r="O5" s="73">
         <v>2500</v>
       </c>
-      <c r="P5" s="76"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="73">
         <v>2500</v>
       </c>
-      <c r="S5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -5491,30 +5491,30 @@
       <c r="C6" s="73">
         <v>-213</v>
       </c>
-      <c r="D6" s="76"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="74"/>
       <c r="F6" s="73">
         <v>103</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="74"/>
       <c r="I6" s="73">
         <v>-387</v>
       </c>
-      <c r="J6" s="76"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="74"/>
       <c r="L6" s="73">
         <v>-144</v>
       </c>
-      <c r="M6" s="76"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="74"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="76"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="73">
         <v>-605</v>
       </c>
-      <c r="S6" s="76"/>
+      <c r="S6" s="75"/>
       <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -5677,7 +5677,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1">
       <c r="C10" s="10" t="s">
         <v>98</v>
       </c>
@@ -5728,9 +5728,15 @@
       <c r="E11" s="26">
         <v>57</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="26"/>
+      <c r="F11" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="47">
+        <v>43321</v>
+      </c>
+      <c r="H11" s="63">
+        <v>30</v>
+      </c>
       <c r="I11" s="25"/>
       <c r="J11" s="44"/>
       <c r="K11" s="26"/>
@@ -5986,7 +5992,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="2">
         <f>SUM(H8:H20)</f>
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>7</v>
@@ -6045,7 +6051,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16">
         <f>SUM(F5:H6)-H21</f>
-        <v>1953</v>
+        <v>1923</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>11</v>
@@ -6134,7 +6140,7 @@
       </c>
       <c r="B25" s="14">
         <f>SUM(E21,H21,K21,N21,Q21,T21)</f>
-        <v>2447</v>
+        <v>2477</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -6204,6 +6210,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -6216,12 +6228,6 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Room Data.xlsx
+++ b/Room Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="101">
   <si>
     <t>Kushal</t>
   </si>
@@ -5343,7 +5343,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5688,13 +5688,13 @@
         <v>20</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="G10" s="47">
-        <v>43319</v>
+        <v>43317</v>
       </c>
       <c r="H10" s="63">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="45"/>
@@ -5718,7 +5718,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="C11" s="25" t="s">
         <v>100</v>
       </c>
@@ -5729,13 +5729,13 @@
         <v>57</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G11" s="47">
-        <v>43321</v>
+        <v>43319</v>
       </c>
       <c r="H11" s="63">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="44"/>
@@ -5764,9 +5764,15 @@
       <c r="C12" s="25"/>
       <c r="D12" s="44"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="26"/>
+      <c r="F12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="47">
+        <v>43321</v>
+      </c>
+      <c r="H12" s="63">
+        <v>30</v>
+      </c>
       <c r="I12" s="25"/>
       <c r="J12" s="44"/>
       <c r="K12" s="26"/>
@@ -5841,22 +5847,34 @@
     <row r="15" spans="1:24">
       <c r="C15" s="25"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="26">
+        <v>500</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="44"/>
-      <c r="H15" s="26"/>
+      <c r="H15" s="26">
+        <v>900</v>
+      </c>
       <c r="I15" s="25"/>
       <c r="J15" s="44"/>
-      <c r="K15" s="26"/>
+      <c r="K15" s="26">
+        <v>3000</v>
+      </c>
       <c r="L15" s="25"/>
       <c r="M15" s="44"/>
-      <c r="N15" s="26"/>
+      <c r="N15" s="26">
+        <v>2200</v>
+      </c>
       <c r="O15" s="25"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="26"/>
+      <c r="Q15" s="26">
+        <v>2500</v>
+      </c>
       <c r="R15" s="25"/>
       <c r="S15" s="44"/>
-      <c r="T15" s="26"/>
+      <c r="T15" s="26">
+        <v>1800</v>
+      </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7">
         <f>SUM(W6:W13)</f>
@@ -5984,7 +6002,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="2">
         <f>SUM(E8:E20)</f>
-        <v>1777</v>
+        <v>2277</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>7</v>
@@ -5992,7 +6010,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="2">
         <f>SUM(H8:H20)</f>
-        <v>680</v>
+        <v>2580</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>7</v>
@@ -6000,7 +6018,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="2">
         <f>SUM(K8:K20)</f>
-        <v>20</v>
+        <v>3020</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>7</v>
@@ -6008,7 +6026,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="2">
         <f>SUM(N8:N20)</f>
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>7</v>
@@ -6016,7 +6034,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="2">
         <f>SUM(Q9:Q20)</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>7</v>
@@ -6024,7 +6042,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="2">
         <f>SUM(T8:T20)</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="V21" s="17" t="s">
         <v>7</v>
@@ -6043,7 +6061,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="16">
         <f>SUM(C5:E6)-E21</f>
-        <v>510</v>
+        <v>10</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>11</v>
@@ -6051,7 +6069,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16">
         <f>SUM(F5:H6)-H21</f>
-        <v>1923</v>
+        <v>23</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>11</v>
@@ -6059,7 +6077,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16">
         <f>SUM(I5:K6)-K21</f>
-        <v>2093</v>
+        <v>-907</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>11</v>
@@ -6067,7 +6085,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16">
         <f>SUM(L5:N6)-N21</f>
-        <v>2356</v>
+        <v>156</v>
       </c>
       <c r="O22" s="16" t="s">
         <v>11</v>
@@ -6075,7 +6093,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="16">
         <f>SUM(O5:Q6)-Q21</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R22" s="16" t="s">
         <v>11</v>
@@ -6083,7 +6101,7 @@
       <c r="S22" s="16"/>
       <c r="T22" s="16">
         <f>SUM(R5:T6)-T21</f>
-        <v>1895</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -6140,7 +6158,7 @@
       </c>
       <c r="B25" s="14">
         <f>SUM(E21,H21,K21,N21,Q21,T21)</f>
-        <v>2477</v>
+        <v>14377</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>

--- a/Room Data.xlsx
+++ b/Room Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="101">
   <si>
     <t>Kushal</t>
   </si>
@@ -1049,12 +1049,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3097,6 +3097,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="C6:D6"/>
@@ -3113,14 +3121,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3198,32 +3198,32 @@
       <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="72"/>
       <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="72"/>
       <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="76"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="72"/>
       <c r="O4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="76"/>
+      <c r="P4" s="75"/>
       <c r="Q4" s="72"/>
       <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -3242,32 +3242,32 @@
       <c r="C5" s="73">
         <v>2700</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="74"/>
       <c r="F5" s="73">
         <v>2700</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="74"/>
       <c r="I5" s="73">
         <v>2700</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74"/>
       <c r="L5" s="73">
         <v>2700</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="74"/>
       <c r="O5" s="73">
         <v>310</v>
       </c>
-      <c r="P5" s="75"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="73">
         <v>2700</v>
       </c>
-      <c r="S5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -3280,32 +3280,32 @@
       <c r="C6" s="73">
         <v>122</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="74"/>
       <c r="F6" s="73">
         <v>-31</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="74"/>
       <c r="I6" s="73">
         <v>0</v>
       </c>
-      <c r="J6" s="75"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="74"/>
       <c r="L6" s="73">
         <v>-25</v>
       </c>
-      <c r="M6" s="75"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="74"/>
       <c r="O6" s="73">
         <v>190</v>
       </c>
-      <c r="P6" s="75"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="73">
         <v>-90</v>
       </c>
-      <c r="S6" s="75"/>
+      <c r="S6" s="76"/>
       <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -4237,12 +4237,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -4255,6 +4249,12 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4336,32 +4336,32 @@
       <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="72"/>
       <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="72"/>
       <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="76"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="72"/>
       <c r="O4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="76"/>
+      <c r="P4" s="75"/>
       <c r="Q4" s="72"/>
       <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -4380,32 +4380,32 @@
       <c r="C5" s="73">
         <v>3000</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="74"/>
       <c r="F5" s="73">
         <v>3000</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="74"/>
       <c r="I5" s="73">
         <v>3000</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74"/>
       <c r="L5" s="73">
         <v>3000</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="74"/>
       <c r="O5" s="73">
         <v>2500</v>
       </c>
-      <c r="P5" s="75"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="73">
         <v>3000</v>
       </c>
-      <c r="S5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -4418,30 +4418,30 @@
       <c r="C6" s="73">
         <v>-288</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="74"/>
       <c r="F6" s="73">
         <v>159</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="74"/>
       <c r="I6" s="73">
         <v>-30</v>
       </c>
-      <c r="J6" s="75"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="74"/>
       <c r="L6" s="73">
         <v>-29</v>
       </c>
-      <c r="M6" s="75"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="74"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="75"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="73">
         <v>-520</v>
       </c>
-      <c r="S6" s="75"/>
+      <c r="S6" s="76"/>
       <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -5306,6 +5306,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -5318,12 +5324,6 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Item(s) of Expense" error="Eg: Like Rent or water or Travelling etc.." promptTitle="Item(s) of Expense" prompt="Eg: Like Rent or water or Travelling etc.." sqref="I14">
@@ -5343,7 +5343,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5409,32 +5409,32 @@
       <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="72"/>
       <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="72"/>
       <c r="I4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="72"/>
       <c r="L4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="76"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="72"/>
       <c r="O4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="76"/>
+      <c r="P4" s="75"/>
       <c r="Q4" s="72"/>
       <c r="R4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="72"/>
       <c r="V4" s="48" t="s">
         <v>12</v>
@@ -5453,32 +5453,32 @@
       <c r="C5" s="73">
         <v>2500</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="74"/>
       <c r="F5" s="73">
         <v>2500</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="74"/>
       <c r="I5" s="73">
         <v>2500</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74"/>
       <c r="L5" s="73">
         <v>2500</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="74"/>
       <c r="O5" s="73">
         <v>2500</v>
       </c>
-      <c r="P5" s="75"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="73">
         <v>2500</v>
       </c>
-      <c r="S5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="74"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -5491,30 +5491,30 @@
       <c r="C6" s="73">
         <v>-213</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="74"/>
       <c r="F6" s="73">
         <v>103</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="74"/>
       <c r="I6" s="73">
         <v>-387</v>
       </c>
-      <c r="J6" s="75"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="74"/>
       <c r="L6" s="73">
         <v>-144</v>
       </c>
-      <c r="M6" s="75"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="74"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="75"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="74"/>
       <c r="R6" s="73">
         <v>-605</v>
       </c>
-      <c r="S6" s="75"/>
+      <c r="S6" s="76"/>
       <c r="T6" s="74"/>
       <c r="V6" s="18" t="s">
         <v>13</v>
@@ -5655,9 +5655,15 @@
       <c r="H9" s="63">
         <v>20</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="26"/>
+      <c r="I9" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="47">
+        <v>43324</v>
+      </c>
+      <c r="K9" s="63">
+        <v>15</v>
+      </c>
       <c r="L9" s="25"/>
       <c r="M9" s="44"/>
       <c r="N9" s="26"/>
@@ -5760,7 +5766,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1">
       <c r="C12" s="25"/>
       <c r="D12" s="44"/>
       <c r="E12" s="26"/>
@@ -5795,13 +5801,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1">
       <c r="C13" s="25"/>
       <c r="D13" s="44"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="26"/>
+      <c r="F13" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="47">
+        <v>43324</v>
+      </c>
+      <c r="H13" s="26">
+        <v>100</v>
+      </c>
       <c r="I13" s="25"/>
       <c r="J13" s="44"/>
       <c r="K13" s="26"/>
@@ -5826,9 +5838,15 @@
       <c r="C14" s="10"/>
       <c r="D14" s="45"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="47">
+        <v>43324</v>
+      </c>
+      <c r="H14" s="11">
+        <v>20</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="45"/>
       <c r="K14" s="11"/>
@@ -5847,34 +5865,6 @@
     <row r="15" spans="1:24">
       <c r="C15" s="25"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="26">
-        <v>500</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="26">
-        <v>900</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="26">
-        <v>3000</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="26">
-        <v>2200</v>
-      </c>
-      <c r="O15" s="25"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="26">
-        <v>2500</v>
-      </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="26">
-        <v>1800</v>
-      </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7">
         <f>SUM(W6:W13)</f>
@@ -5932,22 +5922,34 @@
     <row r="18" spans="1:23">
       <c r="C18" s="10"/>
       <c r="D18" s="45"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="11"/>
+      <c r="E18" s="26">
+        <v>500</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="26">
+        <v>900</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="26">
+        <v>3000</v>
+      </c>
+      <c r="L18" s="25"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="26">
+        <v>2200</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="26">
+        <v>2500</v>
+      </c>
+      <c r="R18" s="25"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="26">
+        <v>1800</v>
+      </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
@@ -6010,7 +6012,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="2">
         <f>SUM(H8:H20)</f>
-        <v>2580</v>
+        <v>2700</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>7</v>
@@ -6018,7 +6020,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="2">
         <f>SUM(K8:K20)</f>
-        <v>3020</v>
+        <v>3035</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>7</v>
@@ -6069,7 +6071,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16">
         <f>SUM(F5:H6)-H21</f>
-        <v>23</v>
+        <v>-97</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>11</v>
@@ -6077,7 +6079,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16">
         <f>SUM(I5:K6)-K21</f>
-        <v>-907</v>
+        <v>-922</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>11</v>
@@ -6158,7 +6160,7 @@
       </c>
       <c r="B25" s="14">
         <f>SUM(E21,H21,K21,N21,Q21,T21)</f>
-        <v>14377</v>
+        <v>14512</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -6228,12 +6230,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -6246,6 +6242,12 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
